--- a/outcome/appendix/data/forecast/Pertussis.xlsx
+++ b/outcome/appendix/data/forecast/Pertussis.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">百日咳</t>
+    <t xml:space="preserve">Pertussis</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1445.06992588587</v>
+        <v>1292.9871302677</v>
       </c>
       <c r="C2" t="n">
-        <v>1179.82065683032</v>
+        <v>941.977557807603</v>
       </c>
       <c r="D2" t="n">
-        <v>1039.40617559149</v>
+        <v>756.164314278835</v>
       </c>
       <c r="E2" t="n">
-        <v>1710.31919494143</v>
+        <v>1643.99670272779</v>
       </c>
       <c r="F2" t="n">
-        <v>1850.73367618026</v>
+        <v>1829.80994625656</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>1141</v>
       </c>
       <c r="I2" t="n">
-        <v>304.069925885874</v>
+        <v>151.987130267698</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1753.34701709692</v>
+        <v>1570.10196927677</v>
       </c>
       <c r="C3" t="n">
-        <v>1365.35966760227</v>
+        <v>1060.39365817212</v>
       </c>
       <c r="D3" t="n">
-        <v>1159.9715713391</v>
+        <v>790.570377068599</v>
       </c>
       <c r="E3" t="n">
-        <v>2141.33436659156</v>
+        <v>2079.81028038142</v>
       </c>
       <c r="F3" t="n">
-        <v>2346.72246285473</v>
+        <v>2349.63356148493</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>738</v>
       </c>
       <c r="I3" t="n">
-        <v>1015.34701709692</v>
+        <v>832.101969276767</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>3150.22564378542</v>
+        <v>2373.26810917636</v>
       </c>
       <c r="C4" t="n">
-        <v>2710.95132330255</v>
+        <v>1492.71658817023</v>
       </c>
       <c r="D4" t="n">
-        <v>2478.41354458685</v>
+        <v>1026.58077009097</v>
       </c>
       <c r="E4" t="n">
-        <v>3589.49996426829</v>
+        <v>3253.81963018248</v>
       </c>
       <c r="F4" t="n">
-        <v>3822.03774298399</v>
+        <v>3719.95544826175</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>874</v>
       </c>
       <c r="I4" t="n">
-        <v>2276.22564378542</v>
+        <v>1499.26810917636</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>3104.22564378542</v>
+        <v>2141.44598640801</v>
       </c>
       <c r="C5" t="n">
-        <v>2648.42034250914</v>
+        <v>1257.1194382825</v>
       </c>
       <c r="D5" t="n">
-        <v>2407.13159116781</v>
+        <v>788.98524155918</v>
       </c>
       <c r="E5" t="n">
-        <v>3560.03094506169</v>
+        <v>3025.77253453353</v>
       </c>
       <c r="F5" t="n">
-        <v>3801.31969640303</v>
+        <v>3493.90673125685</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>479</v>
       </c>
       <c r="I5" t="n">
-        <v>2625.22564378542</v>
+        <v>1662.44598640801</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>3544.22564378542</v>
+        <v>2610.61166672434</v>
       </c>
       <c r="C6" t="n">
-        <v>3072.4682731939</v>
+        <v>1431.45725810961</v>
       </c>
       <c r="D6" t="n">
-        <v>2822.73500645179</v>
+        <v>807.250619668553</v>
       </c>
       <c r="E6" t="n">
-        <v>4015.98301437694</v>
+        <v>3789.76607533906</v>
       </c>
       <c r="F6" t="n">
-        <v>4265.71628111905</v>
+        <v>4413.97271378012</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>277</v>
       </c>
       <c r="I6" t="n">
-        <v>3267.22564378542</v>
+        <v>2333.61166672434</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>3543.22564378542</v>
+        <v>2733.66196142173</v>
       </c>
       <c r="C7" t="n">
-        <v>3056.03824581284</v>
+        <v>1399.73231817512</v>
       </c>
       <c r="D7" t="n">
-        <v>2798.13681597672</v>
+        <v>693.59261972286</v>
       </c>
       <c r="E7" t="n">
-        <v>4030.413041758</v>
+        <v>4067.59160466835</v>
       </c>
       <c r="F7" t="n">
-        <v>4288.31447159412</v>
+        <v>4773.73130312061</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>159</v>
       </c>
       <c r="I7" t="n">
-        <v>3384.22564378542</v>
+        <v>2574.66196142173</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>4050.22564378542</v>
+        <v>3311.06523263727</v>
       </c>
       <c r="C8" t="n">
-        <v>3548.082133642</v>
+        <v>1581.57444363488</v>
       </c>
       <c r="D8" t="n">
-        <v>3282.2634162699</v>
+        <v>666.0373233639</v>
       </c>
       <c r="E8" t="n">
-        <v>4552.36915392884</v>
+        <v>5040.55602163966</v>
       </c>
       <c r="F8" t="n">
-        <v>4818.18787130093</v>
+        <v>5956.09314191064</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>142</v>
       </c>
       <c r="I8" t="n">
-        <v>3908.22564378542</v>
+        <v>3169.06523263727</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,28 +651,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>4803.22564378542</v>
+        <v>3669.9170881442</v>
       </c>
       <c r="C9" t="n">
-        <v>4286.55877934081</v>
+        <v>1632.52386051324</v>
       </c>
       <c r="D9" t="n">
-        <v>4013.05186261077</v>
+        <v>553.993034939548</v>
       </c>
       <c r="E9" t="n">
-        <v>5319.89250823003</v>
+        <v>5707.31031577516</v>
       </c>
       <c r="F9" t="n">
-        <v>5593.39942496007</v>
+        <v>6785.84114134885</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="I9" t="n">
-        <v>4672.22564378542</v>
+        <v>3527.9170881442</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3734.22564378542</v>
+        <v>2711.38291317008</v>
       </c>
       <c r="C10" t="n">
-        <v>3203.43265885543</v>
+        <v>1120.59807532833</v>
       </c>
       <c r="D10" t="n">
-        <v>2922.4478256473</v>
+        <v>278.487450241701</v>
       </c>
       <c r="E10" t="n">
-        <v>4265.01862871541</v>
+        <v>4302.16775101183</v>
       </c>
       <c r="F10" t="n">
-        <v>4546.00346192354</v>
+        <v>5144.27837609846</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>201</v>
       </c>
       <c r="I10" t="n">
-        <v>3533.22564378542</v>
+        <v>2510.38291317008</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2348.22564378542</v>
+        <v>1571.91595360053</v>
       </c>
       <c r="C11" t="n">
-        <v>1803.672857651</v>
+        <v>601.762353094082</v>
       </c>
       <c r="D11" t="n">
-        <v>1515.40402567843</v>
+        <v>88.1940593071379</v>
       </c>
       <c r="E11" t="n">
-        <v>2892.77842991984</v>
+        <v>2542.06955410698</v>
       </c>
       <c r="F11" t="n">
-        <v>3181.04726189241</v>
+        <v>3055.63784789392</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>267</v>
       </c>
       <c r="I11" t="n">
-        <v>2081.22564378542</v>
+        <v>1304.91595360053</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>2068.22564378542</v>
+        <v>1394.25972140005</v>
       </c>
       <c r="C12" t="n">
-        <v>1510.25227441855</v>
+        <v>492.535340962838</v>
       </c>
       <c r="D12" t="n">
-        <v>1214.87901482882</v>
+        <v>15.1912881391629</v>
       </c>
       <c r="E12" t="n">
-        <v>2626.19901315229</v>
+        <v>2295.98410183726</v>
       </c>
       <c r="F12" t="n">
-        <v>2921.57227274202</v>
+        <v>2773.32815466094</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>291</v>
       </c>
       <c r="I12" t="n">
-        <v>1777.22564378542</v>
+        <v>1103.25972140005</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1829.22564378542</v>
+        <v>1589.65590914052</v>
       </c>
       <c r="C13" t="n">
-        <v>1258.14699337158</v>
+        <v>515.812073519416</v>
       </c>
       <c r="D13" t="n">
-        <v>955.836217059379</v>
+        <v>-52.6465150645613</v>
       </c>
       <c r="E13" t="n">
-        <v>2400.30429419926</v>
+        <v>2663.49974476163</v>
       </c>
       <c r="F13" t="n">
-        <v>2702.61507051146</v>
+        <v>3231.95833334561</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>294</v>
       </c>
       <c r="I13" t="n">
-        <v>1535.22564378542</v>
+        <v>1295.65590914052</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1860.29556967129</v>
+        <v>1293.02209720576</v>
       </c>
       <c r="C14" t="n">
-        <v>1170.50216529036</v>
+        <v>383.121745811279</v>
       </c>
       <c r="D14" t="n">
-        <v>805.347594335343</v>
+        <v>-98.5504045965156</v>
       </c>
       <c r="E14" t="n">
-        <v>2550.08897405222</v>
+        <v>2202.92244860024</v>
       </c>
       <c r="F14" t="n">
-        <v>2915.24354500724</v>
+        <v>2684.59459900804</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>205</v>
       </c>
       <c r="I14" t="n">
-        <v>1655.29556967129</v>
+        <v>1088.02209720576</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>2168.57266088233</v>
+        <v>1570.14443037868</v>
       </c>
       <c r="C15" t="n">
-        <v>1368.77572199694</v>
+        <v>422.038821422328</v>
       </c>
       <c r="D15" t="n">
-        <v>945.388797426475</v>
+        <v>-185.731575318075</v>
       </c>
       <c r="E15" t="n">
-        <v>2968.36959976773</v>
+        <v>2718.25003933503</v>
       </c>
       <c r="F15" t="n">
-        <v>3391.75652433819</v>
+        <v>3326.02043607544</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>115</v>
       </c>
       <c r="I15" t="n">
-        <v>2053.57266088233</v>
+        <v>1455.14443037868</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>3565.45128757084</v>
+        <v>2373.332290727</v>
       </c>
       <c r="C16" t="n">
-        <v>2701.15349799432</v>
+        <v>573.865570786404</v>
       </c>
       <c r="D16" t="n">
-        <v>2243.62188559302</v>
+        <v>-378.714569723149</v>
       </c>
       <c r="E16" t="n">
-        <v>4429.74907714736</v>
+        <v>4172.7990106676</v>
       </c>
       <c r="F16" t="n">
-        <v>4887.28068954866</v>
+        <v>5125.37915117715</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>220</v>
       </c>
       <c r="I16" t="n">
-        <v>3345.45128757084</v>
+        <v>2153.332290727</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>3519.45128757084</v>
+        <v>2141.5038986698</v>
       </c>
       <c r="C17" t="n">
-        <v>2621.56663728979</v>
+        <v>460.98070622911</v>
       </c>
       <c r="D17" t="n">
-        <v>2146.25521482885</v>
+        <v>-428.63453424478</v>
       </c>
       <c r="E17" t="n">
-        <v>4417.33593785189</v>
+        <v>3822.02709111049</v>
       </c>
       <c r="F17" t="n">
-        <v>4892.64736031283</v>
+        <v>4711.64233158438</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>308</v>
       </c>
       <c r="I17" t="n">
-        <v>3211.45128757084</v>
+        <v>1833.5038986698</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>3959.45128757084</v>
+        <v>2610.68226688293</v>
       </c>
       <c r="C18" t="n">
-        <v>3029.191634918</v>
+        <v>493.74598921952</v>
       </c>
       <c r="D18" t="n">
-        <v>2536.74192144751</v>
+        <v>-626.892383516239</v>
       </c>
       <c r="E18" t="n">
-        <v>4889.71094022368</v>
+        <v>4727.61854454635</v>
       </c>
       <c r="F18" t="n">
-        <v>5382.16065369416</v>
+        <v>5848.2569172821</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>427</v>
       </c>
       <c r="I18" t="n">
-        <v>3532.45128757084</v>
+        <v>2183.68226688293</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>3958.45128757084</v>
+        <v>2733.73588929484</v>
       </c>
       <c r="C19" t="n">
-        <v>2996.90607412674</v>
+        <v>446.54583198428</v>
       </c>
       <c r="D19" t="n">
-        <v>2487.8947851827</v>
+        <v>-764.219447540793</v>
       </c>
       <c r="E19" t="n">
-        <v>4919.99650101494</v>
+        <v>5020.9259466054</v>
       </c>
       <c r="F19" t="n">
-        <v>5429.00778995898</v>
+        <v>6231.69122613047</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>519</v>
       </c>
       <c r="I19" t="n">
-        <v>3439.45128757084</v>
+        <v>2214.73588929484</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>4465.45128757084</v>
+        <v>3311.15477553387</v>
       </c>
       <c r="C20" t="n">
-        <v>3473.60685741018</v>
+        <v>456.553191603696</v>
       </c>
       <c r="D20" t="n">
-        <v>2948.55613200569</v>
+        <v>-1054.58160615948</v>
       </c>
       <c r="E20" t="n">
-        <v>5457.2957177315</v>
+        <v>6165.75635946405</v>
       </c>
       <c r="F20" t="n">
-        <v>5982.34644313599</v>
+        <v>7676.89115722722</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>820</v>
       </c>
       <c r="I20" t="n">
-        <v>3645.45128757084</v>
+        <v>2491.15477553387</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>5218.45128757084</v>
+        <v>3670.01633566223</v>
       </c>
       <c r="C21" t="n">
-        <v>4197.20618976905</v>
+        <v>413.614234852641</v>
       </c>
       <c r="D21" t="n">
-        <v>3656.59169105199</v>
+        <v>-1310.22090828754</v>
       </c>
       <c r="E21" t="n">
-        <v>6239.69638537263</v>
+        <v>6926.41843647181</v>
       </c>
       <c r="F21" t="n">
-        <v>6780.31088408969</v>
+        <v>8650.253579612</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>1227</v>
       </c>
       <c r="I21" t="n">
-        <v>3991.45128757084</v>
+        <v>2443.01633566223</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>4149.45128757084</v>
+        <v>2711.45623853904</v>
       </c>
       <c r="C22" t="n">
-        <v>3099.62857590584</v>
+        <v>237.978285013489</v>
       </c>
       <c r="D22" t="n">
-        <v>2543.88600222769</v>
+        <v>-1071.40184989361</v>
       </c>
       <c r="E22" t="n">
-        <v>5199.27399923584</v>
+        <v>5184.93419206459</v>
       </c>
       <c r="F22" t="n">
-        <v>5755.01657291399</v>
+        <v>6494.31432697169</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>1094</v>
       </c>
       <c r="I22" t="n">
-        <v>3055.45128757084</v>
+        <v>1617.45623853904</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>2763.45128757084</v>
+        <v>1571.95846375899</v>
       </c>
       <c r="C23" t="n">
-        <v>1685.80853504516</v>
+        <v>99.1210878977106</v>
       </c>
       <c r="D23" t="n">
-        <v>1115.33892132877</v>
+        <v>-680.551922388343</v>
       </c>
       <c r="E23" t="n">
-        <v>3841.09404009652</v>
+        <v>3044.79583962026</v>
       </c>
       <c r="F23" t="n">
-        <v>4411.56365381291</v>
+        <v>3824.46884990632</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>825</v>
       </c>
       <c r="I23" t="n">
-        <v>1938.45128757084</v>
+        <v>746.958463758988</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2483.45128757084</v>
+        <v>1394.29742710661</v>
       </c>
       <c r="C24" t="n">
-        <v>1378.68883427394</v>
+        <v>53.7364656165184</v>
       </c>
       <c r="D24" t="n">
-        <v>793.862918168094</v>
+        <v>-655.913640666087</v>
       </c>
       <c r="E24" t="n">
-        <v>3588.21374086774</v>
+        <v>2734.85838859671</v>
       </c>
       <c r="F24" t="n">
-        <v>4173.03965697358</v>
+        <v>3444.50849487931</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>1148</v>
       </c>
       <c r="I24" t="n">
-        <v>1335.45128757084</v>
+        <v>246.297427106613</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>2244.45128757084</v>
+        <v>1589.69889905002</v>
       </c>
       <c r="C25" t="n">
-        <v>1113.21910346448</v>
+        <v>22.571016488127</v>
       </c>
       <c r="D25" t="n">
-        <v>514.380958283031</v>
+        <v>-807.016372944966</v>
       </c>
       <c r="E25" t="n">
-        <v>3375.6834716772</v>
+        <v>3156.82678161192</v>
       </c>
       <c r="F25" t="n">
-        <v>3974.52161685865</v>
+        <v>3986.41417104502</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>2254</v>
       </c>
       <c r="I25" t="n">
-        <v>-9.54871242916124</v>
+        <v>-664.301100949975</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>2275.52121345671</v>
+        <v>1293.05706508945</v>
       </c>
       <c r="C26" t="n">
-        <v>1035.24285791181</v>
+        <v>-13.0068746054376</v>
       </c>
       <c r="D26" t="n">
-        <v>378.679156508696</v>
+        <v>-704.395360650954</v>
       </c>
       <c r="E26" t="n">
-        <v>3515.79956900161</v>
+        <v>2599.12100478435</v>
       </c>
       <c r="F26" t="n">
-        <v>4172.36327040473</v>
+        <v>3290.50949082986</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>2354</v>
       </c>
       <c r="I26" t="n">
-        <v>-78.4787865432882</v>
+        <v>-1060.94293491055</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>2583.79830466775</v>
+        <v>1570.18689262889</v>
       </c>
       <c r="C27" t="n">
-        <v>1236.42052389595</v>
+        <v>-53.5629381315698</v>
       </c>
       <c r="D27" t="n">
-        <v>523.161811465069</v>
+        <v>-913.124176357319</v>
       </c>
       <c r="E27" t="n">
-        <v>3931.17608543956</v>
+        <v>3193.93672338936</v>
       </c>
       <c r="F27" t="n">
-        <v>4644.43479787044</v>
+        <v>4053.49796161511</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>2576</v>
       </c>
       <c r="I27" t="n">
-        <v>7.79830466775411</v>
+        <v>-1005.81310737111</v>
       </c>
       <c r="J27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>3980.67693135626</v>
+        <v>2373.39647401334</v>
       </c>
       <c r="C28" t="n">
-        <v>2560.37299270288</v>
+        <v>-137.771348677533</v>
       </c>
       <c r="D28" t="n">
-        <v>1808.50950422816</v>
+        <v>-1467.1032951227</v>
       </c>
       <c r="E28" t="n">
-        <v>5400.98087000964</v>
+        <v>4884.56429670421</v>
       </c>
       <c r="F28" t="n">
-        <v>6152.84435848436</v>
+        <v>6213.89624314938</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,10 +1280,10 @@
         <v>3747</v>
       </c>
       <c r="I28" t="n">
-        <v>233.676931356259</v>
+        <v>-1373.60352598666</v>
       </c>
       <c r="J28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>3934.67693135626</v>
+        <v>2141.56181249774</v>
       </c>
       <c r="C29" t="n">
-        <v>2468.24173862625</v>
+        <v>-175.354800159703</v>
       </c>
       <c r="D29" t="n">
-        <v>1691.95783936913</v>
+        <v>-1401.85636752795</v>
       </c>
       <c r="E29" t="n">
-        <v>5401.11212408626</v>
+        <v>4458.47842515518</v>
       </c>
       <c r="F29" t="n">
-        <v>6177.39602334338</v>
+        <v>5684.97999252342</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,10 +1312,10 @@
         <v>3415</v>
       </c>
       <c r="I29" t="n">
-        <v>519.676931356258</v>
+        <v>-1273.43818750226</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>4374.67693135626</v>
+        <v>2610.75286895081</v>
       </c>
       <c r="C30" t="n">
-        <v>2863.51808106953</v>
+        <v>-275.767184763695</v>
       </c>
       <c r="D30" t="n">
-        <v>2063.55890761736</v>
+        <v>-1803.79859978301</v>
       </c>
       <c r="E30" t="n">
-        <v>5885.83578164298</v>
+        <v>5497.27292266531</v>
       </c>
       <c r="F30" t="n">
-        <v>6685.79495509516</v>
+        <v>7025.30433768462</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,10 +1344,10 @@
         <v>3991</v>
       </c>
       <c r="I30" t="n">
-        <v>383.676931356258</v>
+        <v>-1380.24713104919</v>
       </c>
       <c r="J30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>4373.67693135626</v>
+        <v>2733.80981916721</v>
       </c>
       <c r="C31" t="n">
-        <v>2819.08053128237</v>
+        <v>-353.477733557803</v>
       </c>
       <c r="D31" t="n">
-        <v>1996.12690796284</v>
+        <v>-1987.78904266902</v>
       </c>
       <c r="E31" t="n">
-        <v>5928.27333143015</v>
+        <v>5821.09737189223</v>
       </c>
       <c r="F31" t="n">
-        <v>6751.22695474968</v>
+        <v>7455.40868100345</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>4213</v>
       </c>
       <c r="I31" t="n">
-        <v>160.676931356258</v>
+        <v>-1479.19018083279</v>
       </c>
       <c r="J31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>4880.67693135626</v>
+        <v>3311.24432085203</v>
       </c>
       <c r="C32" t="n">
-        <v>3283.82413180162</v>
+        <v>-506.313729881034</v>
       </c>
       <c r="D32" t="n">
-        <v>2438.50132181764</v>
+        <v>-2527.20688898915</v>
       </c>
       <c r="E32" t="n">
-        <v>6477.5297309109</v>
+        <v>7128.80237158509</v>
       </c>
       <c r="F32" t="n">
-        <v>7322.85254089487</v>
+        <v>9149.69553069321</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>4234</v>
       </c>
       <c r="I32" t="n">
-        <v>646.676931356258</v>
+        <v>-922.755679147971</v>
       </c>
       <c r="J32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>5633.67693135626</v>
+        <v>3670.11558586426</v>
       </c>
       <c r="C33" t="n">
-        <v>3995.65746878315</v>
+        <v>-647.648054744795</v>
       </c>
       <c r="D33" t="n">
-        <v>3128.54234377168</v>
+        <v>-2933.33405820375</v>
       </c>
       <c r="E33" t="n">
-        <v>7271.69639392937</v>
+        <v>7987.87922647331</v>
       </c>
       <c r="F33" t="n">
-        <v>8138.81151894084</v>
+        <v>10273.5652299323</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>5355</v>
       </c>
       <c r="I33" t="n">
-        <v>278.676931356258</v>
+        <v>-1684.88441413574</v>
       </c>
       <c r="J33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4564.67693135626</v>
+        <v>2711.52956589098</v>
       </c>
       <c r="C34" t="n">
-        <v>2886.50034467323</v>
+        <v>-542.259732241802</v>
       </c>
       <c r="D34" t="n">
-        <v>1998.12732225072</v>
+        <v>-2264.71174119372</v>
       </c>
       <c r="E34" t="n">
-        <v>6242.85351803928</v>
+        <v>5965.31886402376</v>
       </c>
       <c r="F34" t="n">
-        <v>7131.2265404618</v>
+        <v>7687.77087297569</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,10 +1472,10 @@
         <v>3849</v>
       </c>
       <c r="I34" t="n">
-        <v>715.676931356258</v>
+        <v>-1137.47043410902</v>
       </c>
       <c r="J34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>3178.67693135626</v>
+        <v>1572.00097506707</v>
       </c>
       <c r="C35" t="n">
-        <v>1461.28194114175</v>
+        <v>-351.295623604029</v>
       </c>
       <c r="D35" t="n">
-        <v>552.147949965219</v>
+        <v>-1369.42734224128</v>
       </c>
       <c r="E35" t="n">
-        <v>4896.07192157077</v>
+        <v>3495.29757373817</v>
       </c>
       <c r="F35" t="n">
-        <v>5805.2059127473</v>
+        <v>4513.42929237542</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,10 +1504,10 @@
         <v>2594</v>
       </c>
       <c r="I35" t="n">
-        <v>584.676931356258</v>
+        <v>-1021.99902493293</v>
       </c>
       <c r="J35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2898.67693135626</v>
+        <v>1394.33513383287</v>
       </c>
       <c r="C36" t="n">
-        <v>1142.93935166598</v>
+        <v>-344.312696021312</v>
       </c>
       <c r="D36" t="n">
-        <v>213.508019690867</v>
+        <v>-1264.69726090718</v>
       </c>
       <c r="E36" t="n">
-        <v>4654.41451104654</v>
+        <v>3132.98296368705</v>
       </c>
       <c r="F36" t="n">
-        <v>5583.84584302165</v>
+        <v>4053.36752857292</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,10 +1536,10 @@
         <v>2160</v>
       </c>
       <c r="I36" t="n">
-        <v>738.676931356258</v>
+        <v>-765.664866167129</v>
       </c>
       <c r="J36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37">
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>2659.67693135626</v>
+        <v>1589.74189012213</v>
       </c>
       <c r="C37" t="n">
-        <v>866.416396726812</v>
+        <v>-429.8521764726</v>
       </c>
       <c r="D37" t="n">
-        <v>-82.8783877324108</v>
+        <v>-1498.96069535233</v>
       </c>
       <c r="E37" t="n">
-        <v>4452.9374659857</v>
+        <v>3609.33595671685</v>
       </c>
       <c r="F37" t="n">
-        <v>5402.23225044493</v>
+        <v>4678.44447559658</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>1293</v>
       </c>
       <c r="I37" t="n">
-        <v>1366.67693135626</v>
+        <v>296.741890122125</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2690.74685724213</v>
+        <v>1293.0920339188</v>
       </c>
       <c r="C38" t="n">
-        <v>789.983692849338</v>
+        <v>-380.050800842512</v>
       </c>
       <c r="D38" t="n">
-        <v>-216.219546226092</v>
+        <v>-1265.7591159605</v>
       </c>
       <c r="E38" t="n">
-        <v>4591.51002163492</v>
+        <v>2966.23486868012</v>
       </c>
       <c r="F38" t="n">
-        <v>5597.71326071035</v>
+        <v>3851.94318379811</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>883</v>
       </c>
       <c r="I38" t="n">
-        <v>1807.74685724213</v>
+        <v>410.092033918802</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2999.02394845317</v>
+        <v>1570.22935602744</v>
       </c>
       <c r="C39" t="n">
-        <v>990.814182958047</v>
+        <v>-498.332877493699</v>
       </c>
       <c r="D39" t="n">
-        <v>-72.2678509520624</v>
+        <v>-1593.36357810336</v>
       </c>
       <c r="E39" t="n">
-        <v>5007.2337139483</v>
+        <v>3638.79158954857</v>
       </c>
       <c r="F39" t="n">
-        <v>6070.31574785841</v>
+        <v>4733.82229015823</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>538</v>
       </c>
       <c r="I39" t="n">
-        <v>2461.02394845317</v>
+        <v>1032.22935602744</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>4395.90257514168</v>
+        <v>2373.46065903542</v>
       </c>
       <c r="C40" t="n">
-        <v>2308.11982476778</v>
+        <v>-808.944601987107</v>
       </c>
       <c r="D40" t="n">
-        <v>1202.91439714517</v>
+        <v>-2493.60818431957</v>
       </c>
       <c r="E40" t="n">
-        <v>6483.68532551558</v>
+        <v>5555.86592005795</v>
       </c>
       <c r="F40" t="n">
-        <v>7588.89075313818</v>
+        <v>7240.52950239041</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,298 @@
         <v>821</v>
       </c>
       <c r="I40" t="n">
-        <v>3574.90257514168</v>
+        <v>1552.46065903542</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2141.61972789187</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-780.221508665982</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-2326.95082842732</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5063.46096444972</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6610.19028421105</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1074</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1067.61972789187</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2610.82347292801</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1012.53895650581</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-2930.63116343534</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6234.18590236182</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8152.27810929135</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1334</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1276.82347292801</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2733.88375103891</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1124.62443909269</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-3167.19529254764</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6592.39194117052</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8634.96279462546</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1512</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1221.88375103891</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3311.33386859181</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1440.24633017681</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-3955.58094749879</v>
+      </c>
+      <c r="E44" t="n">
+        <v>8062.91406736043</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10578.2486846824</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2767</v>
+      </c>
+      <c r="I44" t="n">
+        <v>544.333868591809</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3670.21483875036</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1683.04114560777</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-4516.88368420821</v>
+      </c>
+      <c r="E45" t="n">
+        <v>9023.47082310849</v>
+      </c>
+      <c r="F45" t="n">
+        <v>11857.3133617089</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4793</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-1122.78516124964</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2711.60289522595</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1307.64281771028</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-3435.3029758807</v>
+      </c>
+      <c r="E46" t="n">
+        <v>6730.84860816218</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8858.5087663326</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4517</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1805.39710477405</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1572.04348752481</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-795.401866247303</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-2048.65173341871</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3939.48884129692</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5192.73870846833</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4430</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-2857.95651247519</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1394.37284157885</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-738.674326664841</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-1867.84128970051</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3527.42000982254</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4656.58697285821</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6410</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-5015.62715842115</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1589.78488235686</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-880.114055184</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-2187.59957347396</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4059.68381989771</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5367.16933818767</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9126</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-7536.21511764314</v>
+      </c>
+      <c r="J49" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
